--- a/PYTHON/magic pie 1 datasheet.xlsx
+++ b/PYTHON/magic pie 1 datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\electric-wheel-chair-trip-power-calculator\PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\libs\desktop\GitHub\electric-wheel-chair-trip-power-calculator\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="magic pie 1 datasheet" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -647,7 +647,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9020,6 +9020,486 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'eff plot for 24v'!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'eff plot for 24v'!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>5.1590909090909083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.318181818181817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.795454545454543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.954545454545453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.11363636363636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.43181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.590909090909086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.749999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.068181818181813</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>7.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FFF-4C35-BC08-280813014CEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="398216728"/>
+        <c:axId val="522529104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="398216728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522529104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="522529104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398216728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9300,6 +9780,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12397,6 +12917,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13173,6 +14209,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224116</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0A8732-1B90-4AC4-A9C8-6D85E0600AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13480,8 +14557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S221" sqref="S220:S221"/>
+    <sheetView topLeftCell="B283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G356" sqref="B285:G356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19285,7 +20362,7 @@
         <v>10</v>
       </c>
       <c r="G233">
-        <f>B233*66/253</f>
+        <f t="shared" ref="G233:G257" si="2">B233*66/253</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
@@ -19294,7 +20371,7 @@
         <v>20</v>
       </c>
       <c r="G234">
-        <f>B234*66/253</f>
+        <f t="shared" si="2"/>
         <v>5.2173913043478262</v>
       </c>
     </row>
@@ -19303,7 +20380,7 @@
         <v>30</v>
       </c>
       <c r="G235">
-        <f>B235*66/253</f>
+        <f t="shared" si="2"/>
         <v>7.8260869565217392</v>
       </c>
     </row>
@@ -19312,7 +20389,7 @@
         <v>40</v>
       </c>
       <c r="G236">
-        <f>B236*66/253</f>
+        <f t="shared" si="2"/>
         <v>10.434782608695652</v>
       </c>
     </row>
@@ -19321,7 +20398,7 @@
         <v>50</v>
       </c>
       <c r="G237">
-        <f>B237*66/253</f>
+        <f t="shared" si="2"/>
         <v>13.043478260869565</v>
       </c>
     </row>
@@ -19330,7 +20407,7 @@
         <v>60</v>
       </c>
       <c r="G238">
-        <f>B238*66/253</f>
+        <f t="shared" si="2"/>
         <v>15.652173913043478</v>
       </c>
     </row>
@@ -19339,7 +20416,7 @@
         <v>70</v>
       </c>
       <c r="G239">
-        <f>B239*66/253</f>
+        <f t="shared" si="2"/>
         <v>18.260869565217391</v>
       </c>
     </row>
@@ -19348,7 +20425,7 @@
         <v>80</v>
       </c>
       <c r="G240">
-        <f>B240*66/253</f>
+        <f t="shared" si="2"/>
         <v>20.869565217391305</v>
       </c>
     </row>
@@ -19357,7 +20434,7 @@
         <v>90</v>
       </c>
       <c r="G241">
-        <f>B241*66/253</f>
+        <f t="shared" si="2"/>
         <v>23.478260869565219</v>
       </c>
     </row>
@@ -19366,7 +20443,7 @@
         <v>100</v>
       </c>
       <c r="G242">
-        <f>B242*66/253</f>
+        <f t="shared" si="2"/>
         <v>26.086956521739129</v>
       </c>
     </row>
@@ -19375,7 +20452,7 @@
         <v>110</v>
       </c>
       <c r="G243">
-        <f>B243*66/253</f>
+        <f t="shared" si="2"/>
         <v>28.695652173913043</v>
       </c>
     </row>
@@ -19384,7 +20461,7 @@
         <v>120</v>
       </c>
       <c r="G244">
-        <f>B244*66/253</f>
+        <f t="shared" si="2"/>
         <v>31.304347826086957</v>
       </c>
     </row>
@@ -19393,7 +20470,7 @@
         <v>130</v>
       </c>
       <c r="G245">
-        <f>B245*66/253</f>
+        <f t="shared" si="2"/>
         <v>33.913043478260867</v>
       </c>
     </row>
@@ -19402,7 +20479,7 @@
         <v>140</v>
       </c>
       <c r="G246">
-        <f>B246*66/253</f>
+        <f t="shared" si="2"/>
         <v>36.521739130434781</v>
       </c>
     </row>
@@ -19411,7 +20488,7 @@
         <v>150</v>
       </c>
       <c r="G247">
-        <f>B247*66/253</f>
+        <f t="shared" si="2"/>
         <v>39.130434782608695</v>
       </c>
     </row>
@@ -19420,7 +20497,7 @@
         <v>160</v>
       </c>
       <c r="G248">
-        <f>B248*66/253</f>
+        <f t="shared" si="2"/>
         <v>41.739130434782609</v>
       </c>
     </row>
@@ -19429,7 +20506,7 @@
         <v>170</v>
       </c>
       <c r="G249">
-        <f>B249*66/253</f>
+        <f t="shared" si="2"/>
         <v>44.347826086956523</v>
       </c>
     </row>
@@ -19438,7 +20515,7 @@
         <v>180</v>
       </c>
       <c r="G250">
-        <f>B250*66/253</f>
+        <f t="shared" si="2"/>
         <v>46.956521739130437</v>
       </c>
     </row>
@@ -19447,7 +20524,7 @@
         <v>190</v>
       </c>
       <c r="G251">
-        <f>B251*66/253</f>
+        <f t="shared" si="2"/>
         <v>49.565217391304351</v>
       </c>
     </row>
@@ -19456,7 +20533,7 @@
         <v>200</v>
       </c>
       <c r="G252">
-        <f>B252*66/253</f>
+        <f t="shared" si="2"/>
         <v>52.173913043478258</v>
       </c>
     </row>
@@ -19465,7 +20542,7 @@
         <v>210</v>
       </c>
       <c r="G253">
-        <f>B253*66/253</f>
+        <f t="shared" si="2"/>
         <v>54.782608695652172</v>
       </c>
     </row>
@@ -19474,7 +20551,7 @@
         <v>220</v>
       </c>
       <c r="G254">
-        <f>B254*66/253</f>
+        <f t="shared" si="2"/>
         <v>57.391304347826086</v>
       </c>
     </row>
@@ -19483,7 +20560,7 @@
         <v>230</v>
       </c>
       <c r="G255">
-        <f>B255*66/253</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -19492,7 +20569,7 @@
         <v>240</v>
       </c>
       <c r="G256">
-        <f>B256*66/253</f>
+        <f t="shared" si="2"/>
         <v>62.608695652173914</v>
       </c>
     </row>
@@ -19501,7 +20578,7 @@
         <v>250</v>
       </c>
       <c r="G257">
-        <f>B257*66/253</f>
+        <f t="shared" si="2"/>
         <v>65.217391304347828</v>
       </c>
     </row>
@@ -22132,7 +23209,7 @@
         <v>10</v>
       </c>
       <c r="G399">
-        <f>B399*67/130</f>
+        <f t="shared" ref="G399:G410" si="3">B399*67/130</f>
         <v>5.1538461538461542</v>
       </c>
     </row>
@@ -22141,7 +23218,7 @@
         <v>20</v>
       </c>
       <c r="G400">
-        <f>B400*67/130</f>
+        <f t="shared" si="3"/>
         <v>10.307692307692308</v>
       </c>
     </row>
@@ -22150,7 +23227,7 @@
         <v>30</v>
       </c>
       <c r="G401">
-        <f>B401*67/130</f>
+        <f t="shared" si="3"/>
         <v>15.461538461538462</v>
       </c>
     </row>
@@ -22159,7 +23236,7 @@
         <v>40</v>
       </c>
       <c r="G402">
-        <f>B402*67/130</f>
+        <f t="shared" si="3"/>
         <v>20.615384615384617</v>
       </c>
     </row>
@@ -22168,7 +23245,7 @@
         <v>50</v>
       </c>
       <c r="G403">
-        <f>B403*67/130</f>
+        <f t="shared" si="3"/>
         <v>25.76923076923077</v>
       </c>
     </row>
@@ -22177,7 +23254,7 @@
         <v>60</v>
       </c>
       <c r="G404">
-        <f>B404*67/130</f>
+        <f t="shared" si="3"/>
         <v>30.923076923076923</v>
       </c>
     </row>
@@ -22186,7 +23263,7 @@
         <v>70</v>
       </c>
       <c r="G405">
-        <f>B405*67/130</f>
+        <f t="shared" si="3"/>
         <v>36.07692307692308</v>
       </c>
     </row>
@@ -22195,7 +23272,7 @@
         <v>80</v>
       </c>
       <c r="G406">
-        <f>B406*67/130</f>
+        <f t="shared" si="3"/>
         <v>41.230769230769234</v>
       </c>
     </row>
@@ -22204,7 +23281,7 @@
         <v>90</v>
       </c>
       <c r="G407">
-        <f>B407*67/130</f>
+        <f t="shared" si="3"/>
         <v>46.384615384615387</v>
       </c>
     </row>
@@ -22213,7 +23290,7 @@
         <v>100</v>
       </c>
       <c r="G408">
-        <f>B408*67/130</f>
+        <f t="shared" si="3"/>
         <v>51.53846153846154</v>
       </c>
     </row>
@@ -22222,7 +23299,7 @@
         <v>110</v>
       </c>
       <c r="G409">
-        <f>B409*67/130</f>
+        <f t="shared" si="3"/>
         <v>56.692307692307693</v>
       </c>
     </row>
@@ -22231,7 +23308,7 @@
         <v>120</v>
       </c>
       <c r="G410">
-        <f>B410*67/130</f>
+        <f t="shared" si="3"/>
         <v>61.846153846153847</v>
       </c>
     </row>
@@ -22243,15 +23320,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22268,9 +23345,9 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>5.1538461538461542</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>5.1590909090909083</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -22279,9 +23356,9 @@
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>10.307692307692308</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>10.318181818181817</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -22290,9 +23367,9 @@
         <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>15.461538461538462</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>15.477272727272727</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -22301,9 +23378,9 @@
         <v>40</v>
       </c>
       <c r="B5" s="2">
-        <v>20.615384615384617</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>20.636363636363633</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -22312,9 +23389,9 @@
         <v>50</v>
       </c>
       <c r="B6" s="2">
-        <v>25.76923076923077</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>25.795454545454543</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -22323,9 +23400,9 @@
         <v>60</v>
       </c>
       <c r="B7" s="2">
-        <v>30.923076923076923</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>30.954545454545453</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -22334,9 +23411,9 @@
         <v>70</v>
       </c>
       <c r="B8" s="2">
-        <v>36.07692307692308</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>36.11363636363636</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -22345,9 +23422,9 @@
         <v>80</v>
       </c>
       <c r="B9" s="2">
-        <v>41.230769230769234</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>41.272727272727266</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -22356,9 +23433,9 @@
         <v>90</v>
       </c>
       <c r="B10" s="2">
-        <v>46.384615384615387</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>46.43181818181818</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -22367,9 +23444,9 @@
         <v>100</v>
       </c>
       <c r="B11" s="2">
-        <v>51.53846153846154</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>51.590909090909086</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -22378,9 +23455,9 @@
         <v>110</v>
       </c>
       <c r="B12" s="2">
-        <v>56.692307692307693</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>56.749999999999993</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -22389,9 +23466,9 @@
         <v>120</v>
       </c>
       <c r="B13" s="2">
-        <v>61.846153846153847</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>61.909090909090907</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -22399,133 +23476,133 @@
       <c r="A14">
         <v>130</v>
       </c>
-      <c r="B14">
-        <v>67.5</v>
+      <c r="B14" s="2">
+        <v>67.068181818181813</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15">
-        <v>67.7</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B16">
-        <v>68.099999999999994</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B17">
-        <v>68.7</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B18">
-        <v>68.900000000000006</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B19">
-        <v>69.3</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B20">
-        <v>69.8</v>
+        <v>72.900000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B21">
-        <v>70.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B22">
-        <v>70.8</v>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B23">
-        <v>71.2</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B24">
-        <v>71.5</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B26">
-        <v>72.7</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B27">
-        <v>72.900000000000006</v>
+        <v>75.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B28">
-        <v>73.400000000000006</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B29">
-        <v>73.599999999999994</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B30">
         <v>73.900000000000006</v>
@@ -22533,88 +23610,57 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B31">
-        <v>74.400000000000006</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B32">
-        <v>74.400000000000006</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B33">
-        <v>74.7</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B34">
-        <v>75.099999999999994</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B35">
-        <v>75.3</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B36">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>154</v>
-      </c>
-      <c r="B37">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>155</v>
-      </c>
-      <c r="B38">
-        <v>75.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>156</v>
-      </c>
-      <c r="B39">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>157</v>
-      </c>
-      <c r="B40">
-        <v>76.099999999999994</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B118">
-    <sortCondition ref="A2:A118"/>
+  <sortState ref="A26:B36">
+    <sortCondition descending="1" ref="B26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>